--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2710759.825111089</v>
+        <v>2708364.169105909</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>140.8367046259352</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>57.81540625179792</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>127.1253009183549</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.0369749136673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>313.4409126298447</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>24.84010761051749</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>6.96493952600193</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>206.2864326596779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>167.4712604670895</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>328.338331363961</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>60.96427570692296</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>206.2864326596779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.63623515385262</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217645</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.6498836607803</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3241,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1813.253594101053</v>
+        <v>1240.369975591306</v>
       </c>
       <c r="C2" t="n">
-        <v>1444.291077160641</v>
+        <v>1240.369975591306</v>
       </c>
       <c r="D2" t="n">
-        <v>1086.025378553891</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>700.2371259556462</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>289.2512211660386</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640839</v>
@@ -4328,52 +4328,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>233.286176679335</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>395.0811887443305</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>1036.104398364224</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1332.174964921827</v>
       </c>
       <c r="N2" t="n">
-        <v>1783.315251293161</v>
+        <v>1973.198174541721</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>2248.314393858356</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140986</v>
+        <v>1240.369975591306</v>
       </c>
       <c r="Y2" t="n">
-        <v>2199.853434165174</v>
+        <v>1240.369975591306</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
@@ -4413,19 +4413,19 @@
         <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>979.2471082623987</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661426</v>
+        <v>1620.270317882293</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094759</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2215.08392393018</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.8417162791105</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C4" t="n">
-        <v>371.8417162791105</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
-        <v>371.8417162791105</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>371.8417162791105</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791105</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,7 +4486,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4522,16 +4522,16 @@
         <v>766.6588426383072</v>
       </c>
       <c r="V4" t="n">
-        <v>766.6588426383072</v>
+        <v>511.9743544324203</v>
       </c>
       <c r="W4" t="n">
-        <v>766.6588426383072</v>
+        <v>383.5649595653952</v>
       </c>
       <c r="X4" t="n">
-        <v>766.6588426383072</v>
+        <v>383.5649595653952</v>
       </c>
       <c r="Y4" t="n">
-        <v>553.4901811093503</v>
+        <v>383.5649595653952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>755.9562932262875</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="C5" t="n">
-        <v>386.9937762858758</v>
+        <v>950.7969384077085</v>
       </c>
       <c r="D5" t="n">
-        <v>70.38679383148718</v>
+        <v>950.7969384077085</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148718</v>
+        <v>565.0086858094642</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>558.0631850602607</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>142.3813432603927</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.695465266221</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1142.556133290409</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>531.0821020829401</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>828.3940511992548</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1194.69994069158</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.7657712454554</v>
+        <v>375.6844242836268</v>
       </c>
       <c r="C7" t="n">
-        <v>349.8295883175485</v>
+        <v>206.7482413557198</v>
       </c>
       <c r="D7" t="n">
         <v>199.7129489052128</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.613536154203</v>
+        <v>778.1254682573966</v>
       </c>
       <c r="W7" t="n">
-        <v>1149.196366117243</v>
+        <v>778.1254682573966</v>
       </c>
       <c r="X7" t="n">
-        <v>921.2068152192253</v>
+        <v>778.1254682573966</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.4142360756952</v>
+        <v>557.3328891138665</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>814.440745036482</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>814.440745036482</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1750464297314</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.040585100604</v>
+        <v>1822.097025527165</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,16 +4884,16 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>688.5974568552864</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291482</v>
+        <v>985.9094059716011</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.302981905902</v>
+        <v>1352.215295463927</v>
       </c>
       <c r="N9" t="n">
-        <v>1554.712543231644</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
         <v>2195.735752851538</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.7657712454554</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="C10" t="n">
-        <v>349.8295883175485</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1585.403593682239</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1388.953927688207</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1166.019353230189</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>876.901576240587</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.613536154203</v>
+        <v>622.2170880347002</v>
       </c>
       <c r="W10" t="n">
-        <v>1149.196366117243</v>
+        <v>622.2170880347002</v>
       </c>
       <c r="X10" t="n">
-        <v>921.2068152192253</v>
+        <v>622.2170880347002</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.4142360756952</v>
+        <v>401.42450889117</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>214.9229991561132</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,16 +5595,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,10 +6950,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,13 +7017,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7263,13 @@
         <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7409,13 +7409,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>108.471164941729</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>231.3227342656892</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>312.4213898453384</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.6886171670658</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>105.3588180506127</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>74.65481927719992</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>119.3759750973107</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.9484181982422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.7605018907548</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.93476969131453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695097</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695044</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695063</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695075</v>
@@ -26439,25 +26439,25 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695028</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695072</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695044</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531980.4336961231</v>
+        <v>-531980.4336961228</v>
       </c>
       <c r="C6" t="n">
-        <v>261521.2120147769</v>
+        <v>261521.2120147768</v>
       </c>
       <c r="D6" t="n">
-        <v>434285.571804669</v>
+        <v>434285.5718046695</v>
       </c>
       <c r="E6" t="n">
-        <v>37418.40165065201</v>
+        <v>37383.66372521665</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.2693964031</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964029</v>
+        <v>538272.5314709668</v>
       </c>
       <c r="H6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.2693964028</v>
+        <v>538272.5314709668</v>
       </c>
       <c r="J6" t="n">
-        <v>368893.2525703547</v>
+        <v>368858.5146449192</v>
       </c>
       <c r="K6" t="n">
-        <v>538307.269396403</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.269396403</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="M6" t="n">
-        <v>407422.8124921675</v>
+        <v>407388.0745667316</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="P6" t="n">
-        <v>538307.2693964029</v>
+        <v>538272.5314709671</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>647.4981915352464</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>271.451034069109</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>311.9156944266711</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -27594,16 +27594,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>159.3976974182361</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.547678438427454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.2421289908383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>275.9461796379423</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>141.6505334922104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>45.85121066415013</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>215.2625811963911</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.89960729209258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>40.13587291362144</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>45.85121066415013</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>260.171071406825</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779101</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106283</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>183.3195165217326</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>509.2179052925928</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
@@ -34720,7 +34720,7 @@
         <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>524.1293426259758</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>312.7582746960655</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
@@ -35015,7 +35015,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>293.9057770437568</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35024,7 +35024,7 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35033,10 +35033,10 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>444.6607682593468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>513.7290673455353</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>122.329632432466</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
